--- a/numbers_at_age_2017.xlsx
+++ b/numbers_at_age_2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Dropbox\NMFS\fluke_mse\simulation_R_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -358,7 +358,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>42415</v>
+        <v>50300</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>27346</v>
+        <v>26833</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>16770</v>
+        <v>17191</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>16119</v>
+        <v>16183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>8398</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>4096</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1941</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>4742</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
